--- a/Crud-Todos.xlsx
+++ b/Crud-Todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Desktop\nodejs\ENTREGABLE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABE9084C-4BBA-4B28-80BA-0AD3BE72AE0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22361E7-3F48-42D1-858A-F1B90296310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11040" xr2:uid="{9B456048-B1DA-473B-A5DD-D97F763D1D35}"/>
+    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{9B456048-B1DA-473B-A5DD-D97F763D1D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="48">
   <si>
     <t>Users</t>
   </si>
@@ -81,12 +81,6 @@
     <t>id</t>
   </si>
   <si>
-    <t>category_name_id</t>
-  </si>
-  <si>
-    <t>subcategory_name_id</t>
-  </si>
-  <si>
     <t>status_categories</t>
   </si>
   <si>
@@ -138,7 +132,52 @@
     <t>redes sociales</t>
   </si>
   <si>
-    <t>salud</t>
+    <t>Frontend</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Desing</t>
+  </si>
+  <si>
+    <t>Drawing</t>
+  </si>
+  <si>
+    <t>Photography</t>
+  </si>
+  <si>
+    <t>fotografia</t>
+  </si>
+  <si>
+    <t>subcategories_id</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>react</t>
+  </si>
+  <si>
+    <t>css</t>
+  </si>
+  <si>
+    <t>post</t>
+  </si>
+  <si>
+    <t>edit</t>
+  </si>
+  <si>
+    <t>t</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>todos_id</t>
+  </si>
+  <si>
+    <t>bla bla bla bla bla bla bla bla</t>
   </si>
 </sst>
 </file>
@@ -162,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -181,8 +220,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -403,6 +448,45 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -412,7 +496,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -456,85 +540,97 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -852,23 +948,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C75F59-2240-4AA0-BF63-3E8A12CF10CD}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.42578125" style="1"/>
     <col min="3" max="3" width="20.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="1"/>
-    <col min="10" max="10" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.42578125" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="11.42578125" style="1"/>
+    <col min="4" max="4" width="16.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="1"/>
+    <col min="8" max="8" width="24.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.42578125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
@@ -878,18 +975,20 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="31"/>
+      <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="H2" s="3"/>
+      <c r="E2" s="31"/>
+      <c r="G2" s="3"/>
+      <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
@@ -898,10 +997,11 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="31"/>
+      <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="I3" s="5" t="s">
         <v>9</v>
       </c>
     </row>
@@ -912,7 +1012,8 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="35" t="s">
+      <c r="E4" s="31"/>
+      <c r="G4" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -923,27 +1024,32 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
+      <c r="E5" s="31"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="28" t="s">
+      <c r="A7" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="G7" s="39" t="s">
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="30"/>
+      <c r="G7" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="40"/>
-      <c r="I7" s="40"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="41"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="38"/>
     </row>
     <row r="8" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
+      <c r="E8" s="31"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -952,44 +1058,44 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="22" t="s">
+      <c r="D9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="E9" s="30"/>
+      <c r="G9" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="21" t="s">
+      <c r="H9" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="I9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="J9" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="10" t="s">
+      <c r="K9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="K9" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="L9" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
+      <c r="E10" s="31"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -998,300 +1104,418 @@
       <c r="L10" s="8"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+      <c r="A11" s="9">
         <v>1</v>
       </c>
-      <c r="B11" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="36" t="s">
-        <v>23</v>
+      <c r="B11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>21</v>
       </c>
       <c r="D11" s="11">
         <v>1234</v>
       </c>
-      <c r="F11" s="1">
+      <c r="E11" s="31"/>
+      <c r="G11" s="9">
         <v>1</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="10"/>
+      <c r="H11" s="10" t="s">
+        <v>30</v>
+      </c>
       <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="11"/>
+      <c r="J11" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K11" s="18">
+        <v>2</v>
+      </c>
+      <c r="L11" s="21">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+      <c r="A12" s="9">
         <v>2</v>
       </c>
-      <c r="B12" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>24</v>
+      <c r="B12" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="11">
         <v>1234</v>
       </c>
-      <c r="F12" s="1">
+      <c r="E12" s="31"/>
+      <c r="G12" s="9">
         <v>2</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="10"/>
+      <c r="H12" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="11"/>
+      <c r="J12" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="18">
+        <v>1</v>
+      </c>
+      <c r="L12" s="21">
+        <v>2</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+      <c r="A13" s="9">
         <v>3</v>
       </c>
-      <c r="B13" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="36" t="s">
-        <v>25</v>
+      <c r="B13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>23</v>
       </c>
       <c r="D13" s="11">
         <v>1234</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E13" s="31"/>
+      <c r="G13" s="9">
         <v>3</v>
       </c>
-      <c r="G13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H13" s="10"/>
+      <c r="H13" s="10" t="s">
+        <v>29</v>
+      </c>
       <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="11"/>
+      <c r="J13" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="K13" s="18">
+        <v>1</v>
+      </c>
+      <c r="L13" s="21">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+      <c r="A14" s="9">
         <v>4</v>
       </c>
-      <c r="B14" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="36" t="s">
-        <v>26</v>
+      <c r="B14" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>24</v>
       </c>
       <c r="D14" s="11">
         <v>1234</v>
       </c>
-      <c r="F14" s="1">
+      <c r="E14" s="31"/>
+      <c r="G14" s="9">
         <v>4</v>
       </c>
-      <c r="G14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="H14" s="10"/>
+      <c r="H14" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="11"/>
+      <c r="J14" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="18">
+        <v>3</v>
+      </c>
+      <c r="L14" s="21">
+        <v>4</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
+      <c r="A15" s="12">
         <v>5</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>27</v>
+      <c r="B15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
       </c>
       <c r="D15" s="14">
         <v>1234</v>
       </c>
-      <c r="F15" s="1">
+      <c r="E15" s="31"/>
+      <c r="G15" s="12">
         <v>5</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="H15" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="13"/>
+      <c r="J15" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="19">
+        <v>5</v>
+      </c>
+      <c r="L15" s="22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="44"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="31"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="K17" s="28"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="8"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="15"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="H19" s="32"/>
+      <c r="I19" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="J19" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="K19" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="31"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="8"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="15"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9">
+        <v>1</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="31"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="9">
+        <v>1</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="H21" s="32"/>
+      <c r="I21" s="11">
+        <v>1</v>
+      </c>
+      <c r="J21" s="41">
+        <v>1</v>
+      </c>
+      <c r="K21" s="18">
+        <v>1</v>
+      </c>
+      <c r="L21" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="9">
+        <v>2</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="31"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="9">
+        <v>2</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="H22" s="32"/>
+      <c r="I22" s="11">
+        <v>2</v>
+      </c>
+      <c r="J22" s="41">
+        <v>2</v>
+      </c>
+      <c r="K22" s="18">
+        <v>2</v>
+      </c>
+      <c r="L22" s="16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="9">
+        <v>3</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="14"/>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="F17" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="G17" s="30"/>
-      <c r="I17" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="26"/>
-      <c r="C18" s="27"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="16"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="C19" s="32"/>
-      <c r="E19" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="31" t="s">
-        <v>9</v>
-      </c>
-      <c r="G19" s="32"/>
-      <c r="I19" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="K19" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="26"/>
-      <c r="C20" s="27"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="27"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="16"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>1</v>
-      </c>
-      <c r="B21" s="31"/>
-      <c r="C21" s="32"/>
-      <c r="E21" s="1">
-        <v>1</v>
-      </c>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="I21" s="17">
-        <v>1</v>
-      </c>
-      <c r="J21" s="23"/>
-      <c r="K21" s="18"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>2</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="32"/>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="31"/>
-      <c r="G22" s="32"/>
-      <c r="I22" s="17">
-        <v>2</v>
-      </c>
-      <c r="J22" s="23"/>
-      <c r="K22" s="18"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="C23" s="26"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="9">
         <v>3</v>
       </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="32"/>
-      <c r="E23" s="1">
+      <c r="G23" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="11">
         <v>3</v>
       </c>
-      <c r="F23" s="31"/>
-      <c r="G23" s="32"/>
-      <c r="I23" s="17">
+      <c r="J23" s="41">
         <v>3</v>
       </c>
-      <c r="J23" s="23"/>
-      <c r="K23" s="18"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="K23" s="18">
+        <v>3</v>
+      </c>
+      <c r="L23" s="16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="9">
         <v>4</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="32"/>
-      <c r="E24" s="1">
+      <c r="B24" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="31"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="9">
         <v>4</v>
       </c>
-      <c r="F24" s="31"/>
-      <c r="G24" s="32"/>
-      <c r="I24" s="17">
+      <c r="G24" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="32"/>
+      <c r="I24" s="11">
         <v>4</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="18"/>
-    </row>
-    <row r="25" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="1">
+      <c r="J24" s="41">
+        <v>4</v>
+      </c>
+      <c r="K24" s="18">
+        <v>4</v>
+      </c>
+      <c r="L24" s="16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="12">
         <v>5</v>
       </c>
-      <c r="B25" s="33"/>
-      <c r="C25" s="34"/>
-      <c r="E25" s="1">
+      <c r="B25" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="31"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="12">
         <v>5</v>
       </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="34"/>
-      <c r="I25" s="19">
+      <c r="G25" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="H25" s="34"/>
+      <c r="I25" s="14">
         <v>5</v>
       </c>
-      <c r="J25" s="24"/>
-      <c r="K25" s="20"/>
+      <c r="J25" s="42">
+        <v>5</v>
+      </c>
+      <c r="K25" s="19">
+        <v>5</v>
+      </c>
+      <c r="L25" s="17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H29" s="1" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
+  <mergeCells count="19">
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="F17:I17"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B23:C23"/>
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="G7:L7"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{2E85FBFC-A65C-4BEB-B0DF-D010C375AC0B}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{2E85FBFC-A65C-4BEB-B0DF-D010C375AC0B}"/>
     <hyperlink ref="C11" r:id="rId2" xr:uid="{68CF83B1-AC3D-438C-998A-B1170D30CC73}"/>
     <hyperlink ref="C12" r:id="rId3" xr:uid="{E0B4B8F7-891B-4396-B78F-C68380E87DEA}"/>
     <hyperlink ref="C13" r:id="rId4" xr:uid="{B26F7125-3A91-4240-A95A-5B8603A7FAB8}"/>

--- a/Crud-Todos.xlsx
+++ b/Crud-Todos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ronal\Desktop\nodejs\ENTREGABLE3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A22361E7-3F48-42D1-858A-F1B90296310E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F9EA52-7FB4-4BE8-88BB-469806C112BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15480" yWindow="-120" windowWidth="15600" windowHeight="11040" xr2:uid="{9B456048-B1DA-473B-A5DD-D97F763D1D35}"/>
+    <workbookView xWindow="-15225" yWindow="0" windowWidth="15330" windowHeight="10770" xr2:uid="{9B456048-B1DA-473B-A5DD-D97F763D1D35}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -201,7 +201,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,7 +222,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -496,7 +502,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -573,36 +579,57 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -612,25 +639,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -950,8 +965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1C75F59-2240-4AA0-BF63-3E8A12CF10CD}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7:L7"/>
+    <sheetView tabSelected="1" topLeftCell="E7" workbookViewId="0">
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -975,7 +990,7 @@
       <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="31"/>
+      <c r="E1" s="27"/>
       <c r="G1" s="2" t="s">
         <v>8</v>
       </c>
@@ -986,7 +1001,7 @@
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="D2" s="3"/>
-      <c r="E2" s="31"/>
+      <c r="E2" s="27"/>
       <c r="G2" s="3"/>
       <c r="I2" s="3"/>
     </row>
@@ -997,7 +1012,7 @@
       <c r="D3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="27"/>
       <c r="G3" s="5" t="s">
         <v>9</v>
       </c>
@@ -1012,7 +1027,7 @@
       <c r="D4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="31"/>
+      <c r="E4" s="27"/>
       <c r="G4" s="23" t="s">
         <v>13</v>
       </c>
@@ -1024,32 +1039,32 @@
       <c r="D5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="E5" s="31"/>
+      <c r="E5" s="27"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="30"/>
-      <c r="G7" s="36" t="s">
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="26"/>
+      <c r="G7" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="38"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="44"/>
+      <c r="K7" s="44"/>
+      <c r="L7" s="45"/>
     </row>
     <row r="8" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="8"/>
-      <c r="E8" s="31"/>
+      <c r="E8" s="27"/>
       <c r="G8" s="6"/>
       <c r="H8" s="7"/>
       <c r="I8" s="7"/>
@@ -1058,7 +1073,7 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="18" t="s">
@@ -1070,8 +1085,8 @@
       <c r="D9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="30"/>
-      <c r="G9" s="35" t="s">
+      <c r="E9" s="26"/>
+      <c r="G9" s="28" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="18" t="s">
@@ -1095,7 +1110,7 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="8"/>
-      <c r="E10" s="31"/>
+      <c r="E10" s="27"/>
       <c r="G10" s="6"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
@@ -1116,7 +1131,7 @@
       <c r="D11" s="11">
         <v>1234</v>
       </c>
-      <c r="E11" s="31"/>
+      <c r="E11" s="27"/>
       <c r="G11" s="9">
         <v>1</v>
       </c>
@@ -1147,7 +1162,7 @@
       <c r="D12" s="11">
         <v>1234</v>
       </c>
-      <c r="E12" s="31"/>
+      <c r="E12" s="27"/>
       <c r="G12" s="9">
         <v>2</v>
       </c>
@@ -1178,7 +1193,7 @@
       <c r="D13" s="11">
         <v>1234</v>
       </c>
-      <c r="E13" s="31"/>
+      <c r="E13" s="27"/>
       <c r="G13" s="9">
         <v>3</v>
       </c>
@@ -1209,7 +1224,7 @@
       <c r="D14" s="11">
         <v>1234</v>
       </c>
-      <c r="E14" s="31"/>
+      <c r="E14" s="27"/>
       <c r="G14" s="9">
         <v>4</v>
       </c>
@@ -1240,7 +1255,7 @@
       <c r="D15" s="14">
         <v>1234</v>
       </c>
-      <c r="E15" s="31"/>
+      <c r="E15" s="27"/>
       <c r="G15" s="12">
         <v>5</v>
       </c>
@@ -1260,50 +1275,50 @@
     </row>
     <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="44"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="36" t="s">
+      <c r="B17" s="41"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="38"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
       <c r="J17" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="K17" s="28"/>
-      <c r="L17" s="29"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="38"/>
     </row>
     <row r="18" spans="1:12" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
       <c r="I18" s="8"/>
-      <c r="J18" s="40"/>
+      <c r="J18" s="29"/>
       <c r="K18" s="20"/>
       <c r="L18" s="15"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="28" t="s">
         <v>14</v>
       </c>
       <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="35" t="s">
+      <c r="C19" s="34"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="28" t="s">
         <v>14</v>
       </c>
       <c r="G19" s="32" t="s">
@@ -1313,7 +1328,7 @@
       <c r="I19" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="30" t="s">
         <v>14</v>
       </c>
       <c r="K19" s="18" t="s">
@@ -1327,13 +1342,13 @@
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="8"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="33"/>
-      <c r="H20" s="33"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
       <c r="I20" s="8"/>
-      <c r="J20" s="40"/>
+      <c r="J20" s="29"/>
       <c r="K20" s="20"/>
       <c r="L20" s="15"/>
     </row>
@@ -1344,9 +1359,9 @@
       <c r="B21" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
       <c r="F21" s="9">
         <v>1</v>
       </c>
@@ -1355,9 +1370,9 @@
       </c>
       <c r="H21" s="32"/>
       <c r="I21" s="11">
-        <v>1</v>
-      </c>
-      <c r="J21" s="41">
+        <v>2</v>
+      </c>
+      <c r="J21" s="30">
         <v>1</v>
       </c>
       <c r="K21" s="18">
@@ -1374,9 +1389,9 @@
       <c r="B22" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="26"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
       <c r="F22" s="9">
         <v>2</v>
       </c>
@@ -1385,9 +1400,9 @@
       </c>
       <c r="H22" s="32"/>
       <c r="I22" s="11">
-        <v>2</v>
-      </c>
-      <c r="J22" s="41">
+        <v>1</v>
+      </c>
+      <c r="J22" s="30">
         <v>2</v>
       </c>
       <c r="K22" s="18">
@@ -1404,9 +1419,9 @@
       <c r="B23" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="26"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
       <c r="F23" s="9">
         <v>3</v>
       </c>
@@ -1415,9 +1430,9 @@
       </c>
       <c r="H23" s="32"/>
       <c r="I23" s="11">
-        <v>3</v>
-      </c>
-      <c r="J23" s="41">
+        <v>1</v>
+      </c>
+      <c r="J23" s="30">
         <v>3</v>
       </c>
       <c r="K23" s="18">
@@ -1434,9 +1449,9 @@
       <c r="B24" s="32" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
       <c r="F24" s="9">
         <v>4</v>
       </c>
@@ -1445,9 +1460,9 @@
       </c>
       <c r="H24" s="32"/>
       <c r="I24" s="11">
-        <v>4</v>
-      </c>
-      <c r="J24" s="41">
+        <v>3</v>
+      </c>
+      <c r="J24" s="30">
         <v>4</v>
       </c>
       <c r="K24" s="18">
@@ -1461,23 +1476,23 @@
       <c r="A25" s="12">
         <v>5</v>
       </c>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
       <c r="F25" s="12">
         <v>5</v>
       </c>
-      <c r="G25" s="34" t="s">
+      <c r="G25" s="33" t="s">
         <v>43</v>
       </c>
-      <c r="H25" s="34"/>
+      <c r="H25" s="33"/>
       <c r="I25" s="14">
         <v>5</v>
       </c>
-      <c r="J25" s="42">
+      <c r="J25" s="31">
         <v>5</v>
       </c>
       <c r="K25" s="19">
